--- a/data/CSEV-PriceBook.xlsx
+++ b/data/CSEV-PriceBook.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="362">
   <si>
     <t>ID</t>
   </si>
@@ -353,6 +353,9 @@
     <t>Subgroup</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>service-200a-208v</t>
   </si>
   <si>
@@ -368,6 +371,9 @@
     <t>Panels/Switchgear - New Service</t>
   </si>
   <si>
+    <t>Includes Panel + CIAC</t>
+  </si>
+  <si>
     <t>service-400a-208v</t>
   </si>
   <si>
@@ -491,6 +497,9 @@
     <t>Breakers</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>breaker-50a-2p</t>
   </si>
   <si>
@@ -668,6 +677,9 @@
     <t>Install Pad / Vault for Transformer</t>
   </si>
   <si>
+    <t>Includes Pad/Vault</t>
+  </si>
+  <si>
     <t>conduit-40a-pvc-2in</t>
   </si>
   <si>
@@ -780,6 +792,9 @@
   </si>
   <si>
     <t>Install hand hole in grass, 1 per 200'</t>
+  </si>
+  <si>
+    <t>1 per 200'</t>
   </si>
   <si>
     <t>wire-40a</t>
@@ -3101,7 +3116,7 @@
   <sheetPr>
     <tabColor rgb="4CBC88"/>
   </sheetPr>
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3115,10 +3130,10 @@
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
+    <col min="7" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="30" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3140,16 +3155,19 @@
       <c r="G1" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3">
         <v>1000</v>
@@ -3158,21 +3176,24 @@
         <v>5000</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3">
         <v>3500</v>
@@ -3181,21 +3202,24 @@
         <v>5000</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3">
         <v>12000</v>
@@ -3204,21 +3228,24 @@
         <v>5000</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D5" s="3">
         <v>15000</v>
@@ -3227,21 +3254,24 @@
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3">
         <v>17500</v>
@@ -3250,21 +3280,24 @@
         <v>5000</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D7" s="3">
         <v>20000</v>
@@ -3273,21 +3306,24 @@
         <v>5000</v>
       </c>
       <c r="F7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D8" s="3">
         <v>30000</v>
@@ -3296,21 +3332,24 @@
         <v>5000</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D9" s="3">
         <v>50000</v>
@@ -3319,21 +3358,24 @@
         <v>5000</v>
       </c>
       <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
-      </c>
-      <c r="G9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B10" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" t="s">
-        <v>115</v>
       </c>
       <c r="D10" s="3">
         <v>16000</v>
@@ -3342,21 +3384,24 @@
         <v>15000</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D11" s="3">
         <v>23500</v>
@@ -3365,21 +3410,24 @@
         <v>15000</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3">
         <v>25000</v>
@@ -3388,21 +3436,24 @@
         <v>15000</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D13" s="3">
         <v>30000</v>
@@ -3411,21 +3462,24 @@
         <v>15000</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D14" s="3">
         <v>40000</v>
@@ -3434,21 +3488,24 @@
         <v>15000</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D15" s="3">
         <v>55000</v>
@@ -3457,21 +3514,24 @@
         <v>15000</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D16" s="3">
         <v>60000</v>
@@ -3480,21 +3540,24 @@
         <v>15000</v>
       </c>
       <c r="F16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D17" s="3">
         <v>65000</v>
@@ -3503,21 +3566,24 @@
         <v>15000</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="H17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D18" s="3">
         <v>50</v>
@@ -3526,21 +3592,24 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D19" s="3">
         <v>75</v>
@@ -3549,21 +3618,24 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D20" s="3">
         <v>100</v>
@@ -3572,21 +3644,24 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D21" s="3">
         <v>100</v>
@@ -3595,21 +3670,24 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G21" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D22" s="3">
         <v>200</v>
@@ -3618,21 +3696,24 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D23" s="3">
         <v>300</v>
@@ -3641,21 +3722,24 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D24" s="3">
         <v>400</v>
@@ -3664,21 +3748,24 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G24" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D25" s="3">
         <v>1000</v>
@@ -3687,21 +3774,24 @@
         <v>200</v>
       </c>
       <c r="F25" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H25" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D26" s="3">
         <v>1250</v>
@@ -3710,21 +3800,24 @@
         <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B27" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D27" s="3">
         <v>1500</v>
@@ -3733,21 +3826,24 @@
         <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C28" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D28" s="3">
         <v>2000</v>
@@ -3756,21 +3852,24 @@
         <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B29" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D29" s="3">
         <v>2500</v>
@@ -3779,21 +3878,24 @@
         <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="H29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C30" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D30" s="3">
         <v>500</v>
@@ -3802,21 +3904,24 @@
         <v>3500</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D31" s="3">
         <v>1500</v>
@@ -3825,21 +3930,24 @@
         <v>3500</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D32" s="3">
         <v>2500</v>
@@ -3848,21 +3956,24 @@
         <v>4000</v>
       </c>
       <c r="F32" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G32" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C33" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D33" s="3">
         <v>3500</v>
@@ -3871,21 +3982,24 @@
         <v>5000</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D34" s="3">
         <v>4950</v>
@@ -3894,21 +4008,24 @@
         <v>5000</v>
       </c>
       <c r="F34" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="H34" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D35" s="3">
         <v>4500</v>
@@ -3917,21 +4034,24 @@
         <v>2500</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G35" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="H35" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B36" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D36" s="3">
         <v>6500</v>
@@ -3940,21 +4060,24 @@
         <v>2500</v>
       </c>
       <c r="F36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G36" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="H36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C37" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D37" s="3">
         <v>9000</v>
@@ -3963,21 +4086,24 @@
         <v>12500</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+      <c r="H37" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B38" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
@@ -3986,21 +4112,24 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G38" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C39" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
@@ -4009,21 +4138,24 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G39" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -4032,21 +4164,24 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G40" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H40" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B41" t="s">
+        <v>233</v>
+      </c>
+      <c r="C41" t="s">
         <v>229</v>
-      </c>
-      <c r="C41" t="s">
-        <v>225</v>
       </c>
       <c r="D41" s="3">
         <v>4</v>
@@ -4055,21 +4190,24 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
@@ -4078,21 +4216,24 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B43" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C43" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D43" s="3">
         <v>4</v>
@@ -4101,21 +4242,24 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H43" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B44" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C44" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D44" s="3">
         <v>6</v>
@@ -4124,21 +4268,24 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G44" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H44" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B45" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D45" s="3">
         <v>6</v>
@@ -4147,21 +4294,24 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G45" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C46" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D46" s="3">
         <v>14</v>
@@ -4170,21 +4320,24 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G46" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B47" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C47" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D47" s="3">
         <v>14</v>
@@ -4193,21 +4346,24 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G47" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>248</v>
+      </c>
+      <c r="B48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" t="s">
         <v>244</v>
-      </c>
-      <c r="B48" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" t="s">
-        <v>240</v>
       </c>
       <c r="D48" s="3">
         <v>14</v>
@@ -4216,21 +4372,24 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C49" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D49" s="3">
         <v>16</v>
@@ -4239,21 +4398,24 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G49" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B50" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C50" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D50" s="3">
         <v>125</v>
@@ -4262,21 +4424,24 @@
         <v>125</v>
       </c>
       <c r="F50" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G50" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B51" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D51" s="3">
         <v>100</v>
@@ -4285,21 +4450,24 @@
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G51" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="H51" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B52" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C52" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -4308,21 +4476,24 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G52" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B53" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C53" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
@@ -4331,21 +4502,24 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G53" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C54" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
@@ -4354,21 +4528,24 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G54" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B55" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="C55" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D55" s="3">
         <v>3</v>
@@ -4377,21 +4554,24 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G55" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H55" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B56" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C56" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D56" s="3">
         <v>7</v>
@@ -4400,21 +4580,24 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G56" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B57" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C57" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D57" s="3">
         <v>9</v>
@@ -4423,21 +4606,24 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G57" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H57" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C58" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D58" s="3">
         <v>12</v>
@@ -4446,21 +4632,24 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B59" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C59" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D59" s="3">
         <v>6</v>
@@ -4469,21 +4658,24 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G59" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B60" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C60" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="D60" s="3">
         <v>8</v>
@@ -4492,21 +4684,24 @@
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G60" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H60" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B61" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C61" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="D61" s="3">
         <v>100</v>
@@ -4515,21 +4710,24 @@
         <v>200</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G61" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H61" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C62" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
@@ -4538,21 +4736,24 @@
         <v>1250</v>
       </c>
       <c r="F62" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B63" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C63" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D63" s="3">
         <v>100</v>
@@ -4561,21 +4762,24 @@
         <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G63" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H63" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B64" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C64" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
@@ -4584,21 +4788,24 @@
         <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+      <c r="H64" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B65" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C65" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -4607,21 +4814,24 @@
         <v>12.5</v>
       </c>
       <c r="F65" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G65" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H65" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B66" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C66" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -4630,21 +4840,24 @@
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G66" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H66" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="B67" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -4653,21 +4866,24 @@
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G67" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H67" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C68" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -4676,21 +4892,24 @@
         <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G68" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="H68" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B69" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C69" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D69" s="3">
         <v>500</v>
@@ -4699,21 +4918,24 @@
         <v>300</v>
       </c>
       <c r="F69" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G69" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H69" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B70" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C70" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="D70" s="3">
         <v>500</v>
@@ -4722,21 +4944,24 @@
         <v>1000</v>
       </c>
       <c r="F70" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G70" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B71" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C71" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="D71" s="3">
         <v>500</v>
@@ -4745,21 +4970,24 @@
         <v>750</v>
       </c>
       <c r="F71" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G71" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H71" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B72" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C72" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D72" s="3">
         <v>150</v>
@@ -4768,21 +4996,24 @@
         <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G72" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H72" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B73" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C73" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D73" s="3">
         <v>100</v>
@@ -4791,21 +5022,24 @@
         <v>900</v>
       </c>
       <c r="F73" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G73" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H73" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B74" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C74" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="D74" s="3">
         <v>100</v>
@@ -4814,21 +5048,24 @@
         <v>900</v>
       </c>
       <c r="F74" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G74" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H74" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B75" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C75" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D75" s="3">
         <v>100</v>
@@ -4837,21 +5074,24 @@
         <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G75" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="H75" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B76" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C76" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="D76" s="3">
         <v>1000</v>
@@ -4860,21 +5100,24 @@
         <v>1000</v>
       </c>
       <c r="F76" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G76" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+      <c r="H76" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B77" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C77" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D77" s="3">
         <v>1000</v>
@@ -4883,21 +5126,24 @@
         <v>1000</v>
       </c>
       <c r="F77" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G77" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="H77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C78" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D78" s="3">
         <v>2500</v>
@@ -4906,21 +5152,24 @@
         <v>2500</v>
       </c>
       <c r="F78" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G78" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="H78" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B79" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="C79" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -4929,21 +5178,24 @@
         <v>3000</v>
       </c>
       <c r="F79" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G79" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="H79" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B80" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C80" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -4952,21 +5204,24 @@
         <v>5500</v>
       </c>
       <c r="F80" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="G80" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="H80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B81" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="C81" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -4975,21 +5230,24 @@
         <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G81" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="H81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B82" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C82" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -4998,21 +5256,24 @@
         <v>100</v>
       </c>
       <c r="F82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G82" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+      <c r="H82" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B83" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C83" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
@@ -5021,10 +5282,13 @@
         <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G83" t="s">
-        <v>350</v>
+        <v>355</v>
+      </c>
+      <c r="H83" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/CSEV-PriceBook.xlsx
+++ b/data/CSEV-PriceBook.xlsx
@@ -1,18 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC61CCD-E310-4B67-B236-5717F4C774BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="EVSE Products" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Installation Services" state="visible" r:id="rId5"/>
+    <sheet name="EVSE Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Installation Services" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'EVSE Products'!$A$1:$W$1</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="368">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +85,15 @@
     <t>Charging Level</t>
   </si>
   <si>
+    <t>Warranty: 5-Yr Parts ONLY ($)</t>
+  </si>
+  <si>
+    <t>Warranty: 3-Yr FULL P&amp;L ($)</t>
+  </si>
+  <si>
+    <t>Warranty: 5-Yr FULL P&amp;L ($)</t>
+  </si>
+  <si>
     <t>csev-ac-dp-48a</t>
   </si>
   <si>
@@ -1098,30 +1127,62 @@
   </si>
   <si>
     <t>EV charging stencil</t>
+  </si>
+  <si>
+    <t>calc1-ignore</t>
+  </si>
+  <si>
+    <t>calc2-ignore</t>
+  </si>
+  <si>
+    <t>calc3-ignore</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="$#,##0"/>
-    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <color rgb="FFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1130,7 +1191,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="2D2D2D"/>
+        <fgColor rgb="FF2D2D2D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1146,13 +1213,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,18 +1565,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
-    <tabColor rgb="4CBC88"/>
+    <tabColor rgb="FF4CBC88"/>
   </sheetPr>
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
@@ -1512,10 +1586,11 @@
     <col min="8" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="17" width="15" customWidth="1"/>
+    <col min="16" max="18" width="15" customWidth="1"/>
+    <col min="19" max="23" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1567,114 +1642,177 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
-        <v>5323</v>
+        <v>1000</v>
       </c>
       <c r="F2" s="2">
-        <v>2750</v>
+        <v>500</v>
       </c>
       <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" ref="S2:S30" si="0">R2*(1+$X$1)</f>
+        <v>1100</v>
+      </c>
+      <c r="T2" s="2">
+        <v>750</v>
+      </c>
+      <c r="U2" s="2">
+        <f t="shared" ref="U2:U30" si="1">T2*(1+$X$1)</f>
+        <v>825.00000000000011</v>
+      </c>
+      <c r="V2" s="2">
+        <v>1250</v>
+      </c>
+      <c r="W2" s="2">
+        <f t="shared" ref="W2:W30" si="2">V2*(1+$X$1)</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="2">
         <v>500</v>
       </c>
-      <c r="H2" s="2">
-        <v>500</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1500</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2500</v>
-      </c>
-      <c r="K2" s="2">
-        <v>300</v>
-      </c>
-      <c r="L2" s="2">
-        <v>900</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1500</v>
-      </c>
-      <c r="N2" s="2">
-        <v>350</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="2">
-        <v>4423</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1580</v>
-      </c>
-      <c r="G3" s="2">
-        <v>250</v>
-      </c>
-      <c r="H3" s="2">
-        <v>250</v>
-      </c>
-      <c r="I3" s="2">
+      <c r="R3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+      <c r="T3" s="2">
         <v>750</v>
       </c>
-      <c r="J3" s="2">
+      <c r="U3" s="2">
+        <f t="shared" si="1"/>
+        <v>825.00000000000011</v>
+      </c>
+      <c r="V3" s="2">
         <v>1250</v>
       </c>
-      <c r="K3" s="2">
-        <v>150</v>
-      </c>
-      <c r="L3" s="2">
-        <v>450</v>
-      </c>
-      <c r="M3" s="2">
-        <v>750</v>
-      </c>
-      <c r="N3" s="2">
-        <v>350</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="W3" s="2">
+        <f t="shared" si="2"/>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1685,13 +1823,13 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
-        <v>3173</v>
+        <v>4423</v>
       </c>
       <c r="F4" s="2">
-        <v>900</v>
+        <v>1580</v>
       </c>
       <c r="G4" s="2">
         <v>250</v>
@@ -1721,13 +1859,37 @@
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R4" s="2">
+        <f>700*1.25</f>
+        <v>875</v>
+      </c>
+      <c r="S4" s="6">
+        <f>ROUNDUP(R4*(1+$X$1),-2)</f>
+        <v>1000</v>
+      </c>
+      <c r="T4" s="2">
+        <f>500*1.25</f>
+        <v>625</v>
+      </c>
+      <c r="U4" s="6">
+        <f>ROUNDUP(T4*(1+$X$1),-2)</f>
+        <v>700</v>
+      </c>
+      <c r="V4" s="2">
+        <f>900*1.25</f>
+        <v>1125</v>
+      </c>
+      <c r="W4" s="6">
+        <f>ROUNDUP(V4*(1+$X$1),-2)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1738,60 +1900,84 @@
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
-        <v>5323</v>
+        <v>3173</v>
       </c>
       <c r="F5" s="2">
-        <v>2750</v>
+        <v>900</v>
       </c>
       <c r="G5" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H5" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I5" s="2">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="J5" s="2">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="K5" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L5" s="2">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M5" s="2">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="N5" s="2">
         <v>350</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R5" s="2">
+        <f>700*1.25</f>
+        <v>875</v>
+      </c>
+      <c r="S5" s="6">
+        <f>ROUNDUP(R5*(1+$X$1),-2)</f>
+        <v>1000</v>
+      </c>
+      <c r="T5" s="2">
+        <f>500*1.25</f>
+        <v>625</v>
+      </c>
+      <c r="U5" s="6">
+        <f>ROUNDUP(T5*(1+$X$1),-2)</f>
+        <v>700</v>
+      </c>
+      <c r="V5" s="2">
+        <f>900*1.25</f>
+        <v>1125</v>
+      </c>
+      <c r="W5" s="6">
+        <f>ROUNDUP(V5*(1+$X$1),-2)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>4423</v>
@@ -1827,24 +2013,48 @@
         <v>1</v>
       </c>
       <c r="P6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ref="R6:R12" si="3">700*1.25</f>
+        <v>875</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" ref="S6:S12" si="4">ROUNDUP(R6*(1+$X$1),-2)</f>
+        <v>1000</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" ref="T6:T12" si="5">500*1.25</f>
+        <v>625</v>
+      </c>
+      <c r="U6" s="6">
+        <f t="shared" ref="U6:U12" si="6">ROUNDUP(T6*(1+$X$1),-2)</f>
+        <v>700</v>
+      </c>
+      <c r="V6" s="2">
+        <f t="shared" ref="V6:V12" si="7">900*1.25</f>
+        <v>1125</v>
+      </c>
+      <c r="W6" s="6">
+        <f t="shared" ref="W6:W12" si="8">ROUNDUP(V6*(1+$X$1),-2)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>3173</v>
@@ -1880,83 +2090,131 @@
         <v>1</v>
       </c>
       <c r="P7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R7" s="2">
+        <f t="shared" si="3"/>
+        <v>875</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="U7" s="6">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="V7" s="2">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="W7" s="6">
+        <f t="shared" si="8"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>5323</v>
+        <v>4423</v>
       </c>
       <c r="F8" s="2">
-        <v>2750</v>
+        <v>1580</v>
       </c>
       <c r="G8" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H8" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I8" s="2">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="J8" s="2">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="K8" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L8" s="2">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M8" s="2">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="N8" s="2">
         <v>350</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" si="3"/>
+        <v>875</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="U8" s="6">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="V8" s="2">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="W8" s="6">
+        <f t="shared" si="8"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
-        <v>4423</v>
+        <v>3173</v>
       </c>
       <c r="F9" s="2">
-        <v>1580</v>
+        <v>900</v>
       </c>
       <c r="G9" s="2">
         <v>250</v>
@@ -1986,30 +2244,54 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="3"/>
+        <v>875</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="U9" s="6">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="V9" s="2">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="W9" s="6">
+        <f t="shared" si="8"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
-        <v>3173</v>
+        <v>4423</v>
       </c>
       <c r="F10" s="2">
-        <v>900</v>
+        <v>1580</v>
       </c>
       <c r="G10" s="2">
         <v>250</v>
@@ -2039,83 +2321,131 @@
         <v>1</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" si="3"/>
+        <v>875</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="U10" s="6">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="V10" s="2">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="W10" s="6">
+        <f t="shared" si="8"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
-        <v>5323</v>
+        <v>3173</v>
       </c>
       <c r="F11" s="2">
-        <v>2750</v>
+        <v>900</v>
       </c>
       <c r="G11" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="H11" s="2">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I11" s="2">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="J11" s="2">
-        <v>2500</v>
+        <v>1250</v>
       </c>
       <c r="K11" s="2">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="L11" s="2">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="M11" s="2">
-        <v>1500</v>
+        <v>750</v>
       </c>
       <c r="N11" s="2">
         <v>350</v>
       </c>
       <c r="O11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" si="3"/>
+        <v>875</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="U11" s="6">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="V11" s="2">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="W11" s="6">
+        <f t="shared" si="8"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
-        <v>4423</v>
+        <v>2500</v>
       </c>
       <c r="F12" s="2">
-        <v>1580</v>
+        <v>750</v>
       </c>
       <c r="G12" s="2">
         <v>250</v>
@@ -2139,242 +2469,362 @@
         <v>750</v>
       </c>
       <c r="N12" s="2">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="O12">
         <v>1</v>
       </c>
       <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" si="3"/>
+        <v>875</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="5"/>
+        <v>625</v>
+      </c>
+      <c r="U12" s="6">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="V12" s="2">
+        <f t="shared" si="7"/>
+        <v>1125</v>
+      </c>
+      <c r="W12" s="6">
+        <f t="shared" si="8"/>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
-      </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
-        <v>3173</v>
+        <v>5323</v>
       </c>
       <c r="F13" s="2">
+        <v>2750</v>
+      </c>
+      <c r="G13" s="2">
+        <v>500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>500</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2500</v>
+      </c>
+      <c r="K13" s="2">
+        <v>300</v>
+      </c>
+      <c r="L13" s="2">
         <v>900</v>
       </c>
-      <c r="G13" s="2">
-        <v>250</v>
-      </c>
-      <c r="H13" s="2">
-        <v>250</v>
-      </c>
-      <c r="I13" s="2">
-        <v>750</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1250</v>
-      </c>
-      <c r="K13" s="2">
-        <v>150</v>
-      </c>
-      <c r="L13" s="2">
-        <v>450</v>
-      </c>
       <c r="M13" s="2">
-        <v>750</v>
+        <v>1500</v>
       </c>
       <c r="N13" s="2">
         <v>350</v>
       </c>
       <c r="O13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R13" s="2">
+        <f>1400*1.25</f>
+        <v>1750</v>
+      </c>
+      <c r="S13" s="2">
+        <f>R13*(1+$X$1)</f>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="T13" s="2">
+        <f>1000*1.25</f>
+        <v>1250</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="1"/>
+        <v>1375</v>
+      </c>
+      <c r="V13" s="2">
+        <f>1800*1.25</f>
+        <v>2250</v>
+      </c>
+      <c r="W13" s="2">
+        <f t="shared" si="2"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
+        <v>5323</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2750</v>
+      </c>
+      <c r="G14" s="2">
+        <v>500</v>
+      </c>
+      <c r="H14" s="2">
+        <v>500</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="J14" s="2">
         <v>2500</v>
       </c>
-      <c r="F14" s="2">
-        <v>750</v>
-      </c>
-      <c r="G14" s="2">
-        <v>250</v>
-      </c>
-      <c r="H14" s="2">
-        <v>250</v>
-      </c>
-      <c r="I14" s="2">
-        <v>750</v>
-      </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
+        <v>300</v>
+      </c>
+      <c r="L14" s="2">
+        <v>900</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1500</v>
+      </c>
+      <c r="N14" s="2">
+        <v>350</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" ref="R14:R16" si="9">1400*1.25</f>
+        <v>1750</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="0"/>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" ref="T14:T16" si="10">1000*1.25</f>
         <v>1250</v>
       </c>
-      <c r="K14" s="2">
-        <v>150</v>
-      </c>
-      <c r="L14" s="2">
-        <v>450</v>
-      </c>
-      <c r="M14" s="2">
-        <v>750</v>
-      </c>
-      <c r="N14" s="2">
-        <v>175</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="U14" s="2">
+        <f t="shared" si="1"/>
+        <v>1375</v>
+      </c>
+      <c r="V14" s="2">
+        <f t="shared" ref="V14:V16" si="11">1800*1.25</f>
+        <v>2250</v>
+      </c>
+      <c r="W14" s="2">
+        <f t="shared" si="2"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2">
-        <v>1000</v>
+        <v>5323</v>
       </c>
       <c r="F15" s="2">
+        <v>2750</v>
+      </c>
+      <c r="G15" s="2">
         <v>500</v>
       </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I15" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="9"/>
+        <v>1750</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="10"/>
+        <v>1250</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="1"/>
+        <v>1375</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="11"/>
+        <v>2250</v>
+      </c>
+      <c r="W15" s="2">
+        <f t="shared" si="2"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E16" s="2">
-        <v>1000</v>
+        <v>5323</v>
       </c>
       <c r="F16" s="2">
+        <v>2750</v>
+      </c>
+      <c r="G16" s="2">
         <v>500</v>
       </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" si="9"/>
+        <v>1750</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="0"/>
+        <v>1925.0000000000002</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="10"/>
+        <v>1250</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="1"/>
+        <v>1375</v>
+      </c>
+      <c r="V16" s="2">
+        <f t="shared" si="11"/>
+        <v>2250</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" si="2"/>
+        <v>2475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E17" s="2">
         <v>48096</v>
@@ -2410,24 +2860,46 @@
         <v>2</v>
       </c>
       <c r="P17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R17" s="2">
+        <v>7700</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="0"/>
+        <v>8470</v>
+      </c>
+      <c r="T17" s="2">
+        <v>3100</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="1"/>
+        <v>3410.0000000000005</v>
+      </c>
+      <c r="V17" s="6">
+        <f>((R17-T17)*2)+T17</f>
+        <v>12300</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="2"/>
+        <v>13530.000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E18" s="2">
         <v>52128</v>
@@ -2463,24 +2935,46 @@
         <v>2</v>
       </c>
       <c r="P18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R18" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="T18" s="2">
+        <v>4000</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" ref="V18:V27" si="12">((R18-T18)*2)+T18</f>
+        <v>16000</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="2"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2">
         <v>64368</v>
@@ -2516,24 +3010,46 @@
         <v>2</v>
       </c>
       <c r="P19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R19" s="2">
+        <v>12200</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="0"/>
+        <v>13420.000000000002</v>
+      </c>
+      <c r="T19" s="2">
+        <v>4900</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="1"/>
+        <v>5390</v>
+      </c>
+      <c r="V19" s="6">
+        <f t="shared" si="12"/>
+        <v>19500</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="2"/>
+        <v>21450</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20" s="2">
         <v>79200</v>
@@ -2569,24 +3085,46 @@
         <v>2</v>
       </c>
       <c r="P20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R20" s="2">
+        <v>14500</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="0"/>
+        <v>15950.000000000002</v>
+      </c>
+      <c r="T20" s="2">
+        <v>5800</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="1"/>
+        <v>6380.0000000000009</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="12"/>
+        <v>23200</v>
+      </c>
+      <c r="W20" s="2">
+        <f t="shared" si="2"/>
+        <v>25520.000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E21" s="2">
         <v>48096</v>
@@ -2622,24 +3160,46 @@
         <v>2</v>
       </c>
       <c r="P21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R21" s="2">
+        <v>7700</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="0"/>
+        <v>8470</v>
+      </c>
+      <c r="T21" s="2">
+        <v>3100</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="1"/>
+        <v>3410.0000000000005</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="12"/>
+        <v>12300</v>
+      </c>
+      <c r="W21" s="2">
+        <f t="shared" si="2"/>
+        <v>13530.000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E22" s="2">
         <v>52128</v>
@@ -2675,24 +3235,46 @@
         <v>2</v>
       </c>
       <c r="P22" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R22" s="2">
+        <v>10000</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="0"/>
+        <v>11000</v>
+      </c>
+      <c r="T22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="1"/>
+        <v>4400</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="12"/>
+        <v>16000</v>
+      </c>
+      <c r="W22" s="2">
+        <f t="shared" si="2"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2">
         <v>64368</v>
@@ -2728,24 +3310,46 @@
         <v>2</v>
       </c>
       <c r="P23" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R23" s="2">
+        <v>12200</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="0"/>
+        <v>13420.000000000002</v>
+      </c>
+      <c r="T23" s="2">
+        <v>4900</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="1"/>
+        <v>5390</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="12"/>
+        <v>19500</v>
+      </c>
+      <c r="W23" s="2">
+        <f t="shared" si="2"/>
+        <v>21450</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2">
         <v>79200</v>
@@ -2781,340 +3385,505 @@
         <v>2</v>
       </c>
       <c r="P24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R24" s="2">
+        <v>14500</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="0"/>
+        <v>15950.000000000002</v>
+      </c>
+      <c r="T24" s="2">
+        <v>5800</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="1"/>
+        <v>6380.0000000000009</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="12"/>
+        <v>23200</v>
+      </c>
+      <c r="W24" s="2">
+        <f t="shared" si="2"/>
+        <v>25520.000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2">
-        <v>196933</v>
+        <v>146667</v>
       </c>
       <c r="F25" s="2">
-        <v>147700</v>
+        <v>110000</v>
       </c>
       <c r="G25" s="2">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="H25" s="2">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="I25" s="2">
-        <v>4080</v>
+        <v>2040</v>
       </c>
       <c r="J25" s="2">
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="K25" s="2">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="L25" s="2">
-        <v>2880</v>
+        <v>1440</v>
       </c>
       <c r="M25" s="2">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="N25" s="2">
         <v>1250</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R25" s="2">
+        <v>25000</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="0"/>
+        <v>27500.000000000004</v>
+      </c>
+      <c r="T25" s="2">
+        <v>20000</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="V25" s="2">
+        <f t="shared" si="12"/>
+        <v>30000</v>
+      </c>
+      <c r="W25" s="2">
+        <f t="shared" si="2"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2">
-        <v>196933</v>
+        <v>146667</v>
       </c>
       <c r="F26" s="2">
-        <v>147700</v>
+        <v>110000</v>
       </c>
       <c r="G26" s="2">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="H26" s="2">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="I26" s="2">
-        <v>4080</v>
+        <v>2040</v>
       </c>
       <c r="J26" s="2">
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="K26" s="2">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="L26" s="2">
-        <v>2880</v>
+        <v>1440</v>
       </c>
       <c r="M26" s="2">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="N26" s="2">
         <v>1250</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P26" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q26" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R26" s="2">
+        <v>25000</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="0"/>
+        <v>27500.000000000004</v>
+      </c>
+      <c r="T26" s="2">
+        <v>20000</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="V26" s="2">
+        <f t="shared" si="12"/>
+        <v>30000</v>
+      </c>
+      <c r="W26" s="2">
+        <f t="shared" si="2"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2">
-        <v>196933</v>
+        <v>146667</v>
       </c>
       <c r="F27" s="2">
-        <v>147700</v>
+        <v>110000</v>
       </c>
       <c r="G27" s="2">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="H27" s="2">
-        <v>1360</v>
+        <v>680</v>
       </c>
       <c r="I27" s="2">
-        <v>4080</v>
+        <v>2040</v>
       </c>
       <c r="J27" s="2">
-        <v>6800</v>
+        <v>3400</v>
       </c>
       <c r="K27" s="2">
-        <v>960</v>
+        <v>480</v>
       </c>
       <c r="L27" s="2">
-        <v>2880</v>
+        <v>1440</v>
       </c>
       <c r="M27" s="2">
-        <v>4800</v>
+        <v>2400</v>
       </c>
       <c r="N27" s="2">
         <v>1250</v>
       </c>
       <c r="O27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P27" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R27" s="2">
+        <v>25000</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="0"/>
+        <v>27500.000000000004</v>
+      </c>
+      <c r="T27" s="2">
+        <v>20000</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="V27" s="2">
+        <f t="shared" si="12"/>
+        <v>30000</v>
+      </c>
+      <c r="W27" s="2">
+        <f t="shared" si="2"/>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E28" s="2">
-        <v>146667</v>
+        <v>196933</v>
       </c>
       <c r="F28" s="2">
-        <v>110000</v>
+        <v>147700</v>
       </c>
       <c r="G28" s="2">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="H28" s="2">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="I28" s="2">
-        <v>2040</v>
+        <v>4080</v>
       </c>
       <c r="J28" s="2">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="K28" s="2">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="L28" s="2">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="M28" s="2">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="N28" s="2">
         <v>1250</v>
       </c>
       <c r="O28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R28" s="6">
+        <f>R25*2</f>
+        <v>50000</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="0"/>
+        <v>55000.000000000007</v>
+      </c>
+      <c r="T28" s="6">
+        <f>T25*2</f>
+        <v>40000</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+      <c r="V28" s="6">
+        <f>V25*2</f>
+        <v>60000</v>
+      </c>
+      <c r="W28" s="2">
+        <f t="shared" si="2"/>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E29" s="2">
-        <v>146667</v>
+        <v>196933</v>
       </c>
       <c r="F29" s="2">
-        <v>110000</v>
+        <v>147700</v>
       </c>
       <c r="G29" s="2">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="H29" s="2">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="I29" s="2">
-        <v>2040</v>
+        <v>4080</v>
       </c>
       <c r="J29" s="2">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="K29" s="2">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="L29" s="2">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="M29" s="2">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="N29" s="2">
         <v>1250</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P29" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="R29" s="6">
+        <f t="shared" ref="R29:T30" si="13">R26*2</f>
+        <v>50000</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="0"/>
+        <v>55000.000000000007</v>
+      </c>
+      <c r="T29" s="6">
+        <f t="shared" si="13"/>
+        <v>40000</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+      <c r="V29" s="6">
+        <f t="shared" ref="V29" si="14">V26*2</f>
+        <v>60000</v>
+      </c>
+      <c r="W29" s="2">
+        <f t="shared" si="2"/>
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2">
-        <v>146667</v>
+        <v>196933</v>
       </c>
       <c r="F30" s="2">
-        <v>110000</v>
+        <v>147700</v>
       </c>
       <c r="G30" s="2">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="H30" s="2">
-        <v>680</v>
+        <v>1360</v>
       </c>
       <c r="I30" s="2">
-        <v>2040</v>
+        <v>4080</v>
       </c>
       <c r="J30" s="2">
-        <v>3400</v>
+        <v>6800</v>
       </c>
       <c r="K30" s="2">
-        <v>480</v>
+        <v>960</v>
       </c>
       <c r="L30" s="2">
-        <v>1440</v>
+        <v>2880</v>
       </c>
       <c r="M30" s="2">
-        <v>2400</v>
+        <v>4800</v>
       </c>
       <c r="N30" s="2">
         <v>1250</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P30" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="s">
-        <v>69</v>
+        <v>72</v>
+      </c>
+      <c r="R30" s="6">
+        <f t="shared" si="13"/>
+        <v>50000</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" si="0"/>
+        <v>55000.000000000007</v>
+      </c>
+      <c r="T30" s="6">
+        <f t="shared" si="13"/>
+        <v>40000</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="1"/>
+        <v>44000</v>
+      </c>
+      <c r="V30" s="6">
+        <f t="shared" ref="V30" si="15">V27*2</f>
+        <v>60000</v>
+      </c>
+      <c r="W30" s="2">
+        <f t="shared" si="2"/>
+        <v>66000</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W30">
+      <sortCondition ref="O1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
-    <tabColor rgb="4CBC88"/>
+    <tabColor rgb="FF4CBC88"/>
   </sheetPr>
   <dimension ref="A1:H83"/>
   <sheetViews>
@@ -3123,7 +3892,7 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
     <col min="2" max="3" width="55" customWidth="1"/>
@@ -3133,7 +3902,7 @@
     <col min="7" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3144,30 +3913,30 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3">
         <v>1000</v>
@@ -3176,24 +3945,24 @@
         <v>5000</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D3" s="3">
         <v>3500</v>
@@ -3202,24 +3971,24 @@
         <v>5000</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D4" s="3">
         <v>12000</v>
@@ -3228,24 +3997,24 @@
         <v>5000</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3">
         <v>15000</v>
@@ -3254,24 +4023,24 @@
         <v>5000</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D6" s="3">
         <v>17500</v>
@@ -3280,24 +4049,24 @@
         <v>5000</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D7" s="3">
         <v>20000</v>
@@ -3306,24 +4075,24 @@
         <v>5000</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D8" s="3">
         <v>30000</v>
@@ -3332,24 +4101,24 @@
         <v>5000</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3">
         <v>50000</v>
@@ -3358,24 +4127,24 @@
         <v>5000</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D10" s="3">
         <v>16000</v>
@@ -3384,24 +4153,24 @@
         <v>15000</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3">
         <v>23500</v>
@@ -3410,24 +4179,24 @@
         <v>15000</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D12" s="3">
         <v>25000</v>
@@ -3436,24 +4205,24 @@
         <v>15000</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3">
         <v>30000</v>
@@ -3462,24 +4231,24 @@
         <v>15000</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C14" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3">
         <v>40000</v>
@@ -3488,24 +4257,24 @@
         <v>15000</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D15" s="3">
         <v>55000</v>
@@ -3514,24 +4283,24 @@
         <v>15000</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3">
         <v>60000</v>
@@ -3540,24 +4309,24 @@
         <v>15000</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D17" s="3">
         <v>65000</v>
@@ -3566,24 +4335,24 @@
         <v>15000</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D18" s="3">
         <v>50</v>
@@ -3592,24 +4361,24 @@
         <v>100</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D19" s="3">
         <v>75</v>
@@ -3618,24 +4387,24 @@
         <v>100</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D20" s="3">
         <v>100</v>
@@ -3644,24 +4413,24 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G20" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D21" s="3">
         <v>100</v>
@@ -3670,24 +4439,24 @@
         <v>100</v>
       </c>
       <c r="F21" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H21" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D22" s="3">
         <v>200</v>
@@ -3696,24 +4465,24 @@
         <v>100</v>
       </c>
       <c r="F22" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G22" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D23" s="3">
         <v>300</v>
@@ -3722,24 +4491,24 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G23" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D24" s="3">
         <v>400</v>
@@ -3748,24 +4517,24 @@
         <v>100</v>
       </c>
       <c r="F24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H24" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D25" s="3">
         <v>1000</v>
@@ -3774,24 +4543,24 @@
         <v>200</v>
       </c>
       <c r="F25" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G25" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H25" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D26" s="3">
         <v>1250</v>
@@ -3800,24 +4569,24 @@
         <v>200</v>
       </c>
       <c r="F26" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G26" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D27" s="3">
         <v>1500</v>
@@ -3826,24 +4595,24 @@
         <v>200</v>
       </c>
       <c r="F27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D28" s="3">
         <v>2000</v>
@@ -3852,24 +4621,24 @@
         <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C29" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D29" s="3">
         <v>2500</v>
@@ -3878,24 +4647,24 @@
         <v>200</v>
       </c>
       <c r="F29" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B30" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D30" s="3">
         <v>500</v>
@@ -3904,24 +4673,24 @@
         <v>3500</v>
       </c>
       <c r="F30" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G30" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D31" s="3">
         <v>1500</v>
@@ -3930,24 +4699,24 @@
         <v>3500</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C32" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D32" s="3">
         <v>2500</v>
@@ -3956,24 +4725,24 @@
         <v>4000</v>
       </c>
       <c r="F32" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G32" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H32" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D33" s="3">
         <v>3500</v>
@@ -3982,24 +4751,24 @@
         <v>5000</v>
       </c>
       <c r="F33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G33" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B34" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D34" s="3">
         <v>4950</v>
@@ -4008,24 +4777,24 @@
         <v>5000</v>
       </c>
       <c r="F34" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="H34" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D35" s="3">
         <v>4500</v>
@@ -4034,24 +4803,24 @@
         <v>2500</v>
       </c>
       <c r="F35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G35" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H35" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C36" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D36" s="3">
         <v>6500</v>
@@ -4060,24 +4829,24 @@
         <v>2500</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H36" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B37" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D37" s="3">
         <v>9000</v>
@@ -4086,24 +4855,24 @@
         <v>12500</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G37" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="H37" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B38" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C38" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D38" s="3">
         <v>3</v>
@@ -4112,24 +4881,24 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H38" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C39" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D39" s="3">
         <v>4</v>
@@ -4138,24 +4907,24 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H39" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B40" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D40" s="3">
         <v>3</v>
@@ -4164,24 +4933,24 @@
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>235</v>
+      </c>
+      <c r="B41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C41" t="s">
         <v>232</v>
-      </c>
-      <c r="B41" t="s">
-        <v>233</v>
-      </c>
-      <c r="C41" t="s">
-        <v>229</v>
       </c>
       <c r="D41" s="3">
         <v>4</v>
@@ -4190,24 +4959,24 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G41" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H41" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D42" s="3">
         <v>3</v>
@@ -4216,24 +4985,24 @@
         <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H42" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C43" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D43" s="3">
         <v>4</v>
@@ -4242,24 +5011,24 @@
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G43" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C44" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D44" s="3">
         <v>6</v>
@@ -4268,24 +5037,24 @@
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G44" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H44" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B45" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C45" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="D45" s="3">
         <v>6</v>
@@ -4294,24 +5063,24 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H45" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C46" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D46" s="3">
         <v>14</v>
@@ -4320,24 +5089,24 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G46" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H46" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="C47" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D47" s="3">
         <v>14</v>
@@ -4346,24 +5115,24 @@
         <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H47" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B48" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C48" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D48" s="3">
         <v>14</v>
@@ -4372,24 +5141,24 @@
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G48" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H48" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B49" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C49" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D49" s="3">
         <v>16</v>
@@ -4398,24 +5167,24 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G49" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H49" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D50" s="3">
         <v>125</v>
@@ -4424,24 +5193,24 @@
         <v>125</v>
       </c>
       <c r="F50" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G50" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H50" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C51" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D51" s="3">
         <v>100</v>
@@ -4450,24 +5219,24 @@
         <v>50</v>
       </c>
       <c r="F51" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H51" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D52" s="3">
         <v>1</v>
@@ -4476,24 +5245,24 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G52" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H52" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C53" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="D53" s="3">
         <v>2</v>
@@ -4502,24 +5271,24 @@
         <v>2</v>
       </c>
       <c r="F53" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G53" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H53" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C54" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D54" s="3">
         <v>2</v>
@@ -4528,24 +5297,24 @@
         <v>2</v>
       </c>
       <c r="F54" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G54" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H54" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C55" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D55" s="3">
         <v>3</v>
@@ -4554,24 +5323,24 @@
         <v>2</v>
       </c>
       <c r="F55" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G55" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H55" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="D56" s="3">
         <v>7</v>
@@ -4580,24 +5349,24 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G56" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H56" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D57" s="3">
         <v>9</v>
@@ -4606,24 +5375,24 @@
         <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G57" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H57" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C58" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D58" s="3">
         <v>12</v>
@@ -4632,24 +5401,24 @@
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G58" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H58" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C59" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D59" s="3">
         <v>6</v>
@@ -4658,24 +5427,24 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G59" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H59" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B60" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C60" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D60" s="3">
         <v>8</v>
@@ -4684,24 +5453,24 @@
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G60" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H60" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B61" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C61" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D61" s="3">
         <v>100</v>
@@ -4710,24 +5479,24 @@
         <v>200</v>
       </c>
       <c r="F61" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G61" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B62" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
@@ -4736,24 +5505,24 @@
         <v>1250</v>
       </c>
       <c r="F62" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G62" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H62" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B63" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C63" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D63" s="3">
         <v>100</v>
@@ -4762,24 +5531,24 @@
         <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G63" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H63" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B64" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C64" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D64" s="3">
         <v>0</v>
@@ -4788,24 +5557,24 @@
         <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G64" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B65" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C65" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="D65" s="3">
         <v>0</v>
@@ -4814,24 +5583,24 @@
         <v>12.5</v>
       </c>
       <c r="F65" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G65" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H65" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B66" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C66" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D66" s="3">
         <v>0</v>
@@ -4840,24 +5609,24 @@
         <v>30</v>
       </c>
       <c r="F66" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G66" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H66" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C67" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D67" s="3">
         <v>0</v>
@@ -4866,24 +5635,24 @@
         <v>30</v>
       </c>
       <c r="F67" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G67" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H67" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B68" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C68" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D68" s="3">
         <v>0</v>
@@ -4892,24 +5661,24 @@
         <v>50</v>
       </c>
       <c r="F68" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G68" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H68" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C69" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="D69" s="3">
         <v>500</v>
@@ -4918,24 +5687,24 @@
         <v>300</v>
       </c>
       <c r="F69" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G69" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H69" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B70" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="C70" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D70" s="3">
         <v>500</v>
@@ -4944,24 +5713,24 @@
         <v>1000</v>
       </c>
       <c r="F70" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G70" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H70" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B71" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C71" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D71" s="3">
         <v>500</v>
@@ -4970,24 +5739,24 @@
         <v>750</v>
       </c>
       <c r="F71" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G71" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H71" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B72" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C72" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D72" s="3">
         <v>150</v>
@@ -4996,24 +5765,24 @@
         <v>150</v>
       </c>
       <c r="F72" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G72" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H72" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B73" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C73" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D73" s="3">
         <v>100</v>
@@ -5022,24 +5791,24 @@
         <v>900</v>
       </c>
       <c r="F73" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G73" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H73" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C74" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="D74" s="3">
         <v>100</v>
@@ -5048,24 +5817,24 @@
         <v>900</v>
       </c>
       <c r="F74" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G74" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H74" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B75" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C75" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="D75" s="3">
         <v>100</v>
@@ -5074,24 +5843,24 @@
         <v>100</v>
       </c>
       <c r="F75" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G75" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="H75" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B76" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C76" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D76" s="3">
         <v>1000</v>
@@ -5100,24 +5869,24 @@
         <v>1000</v>
       </c>
       <c r="F76" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G76" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H76" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B77" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="C77" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D77" s="3">
         <v>1000</v>
@@ -5126,24 +5895,24 @@
         <v>1000</v>
       </c>
       <c r="F77" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G77" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H77" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B78" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C78" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D78" s="3">
         <v>2500</v>
@@ -5152,24 +5921,24 @@
         <v>2500</v>
       </c>
       <c r="F78" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G78" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H78" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B79" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C79" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D79" s="3">
         <v>0</v>
@@ -5178,24 +5947,24 @@
         <v>3000</v>
       </c>
       <c r="F79" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G79" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H79" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B80" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C80" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="D80" s="3">
         <v>0</v>
@@ -5204,24 +5973,24 @@
         <v>5500</v>
       </c>
       <c r="F80" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G80" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H80" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B81" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C81" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D81" s="3">
         <v>0</v>
@@ -5230,24 +5999,24 @@
         <v>300</v>
       </c>
       <c r="F81" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G81" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H81" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B82" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="D82" s="3">
         <v>0</v>
@@ -5256,24 +6025,24 @@
         <v>100</v>
       </c>
       <c r="F82" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G82" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H82" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B83" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C83" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
@@ -5282,17 +6051,17 @@
         <v>50</v>
       </c>
       <c r="F83" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G83" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="H83" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>